--- a/dados/tecnoaudio eletronica.xlsx
+++ b/dados/tecnoaudio eletronica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:186722996#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:186722996#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:186722996#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:186722996#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:186722996#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:186722996#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:186722996#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:186722996#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:186722996#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:186722996#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -596,17 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:186722996#searchVariation=MLB34210379&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:186722996#searchVariation=MLB34210379&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -621,17 +671,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:186722996#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:186722996#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482105287-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482105287-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -671,17 +737,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441603393-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3441603393-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -696,17 +772,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145119-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145119-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -721,17 +803,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931351-controle-remoto-k600-jfa-600-metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453931351-controle-remoto-k600-jfa-600-metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -746,17 +834,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:186722996#searchVariation=MLB21392652&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:186722996#searchVariation=MLB21392652&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -771,17 +865,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:186722996#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:186722996#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:186722996#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:186722996#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443851463-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443851463-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348406-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348406-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -871,17 +989,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:186722996#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:186722996#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -896,17 +1020,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518210925-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518210925-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -921,17 +1051,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482030967-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482030967-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043486072-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043486072-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:186722996#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:186722996#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -996,17 +1144,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939769-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939769-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1175,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482080223-fonte-jfa-200amp-carregadora-jfa-storm-lite-lite-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482080223-fonte-jfa-200amp-carregadora-jfa-storm-lite-lite-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1206,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482043039-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482043039-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1237,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043461986-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043461986-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1268,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043514146-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043514146-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1303,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518236894-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518236894-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1334,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043488840-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043488840-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1365,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837044-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837044-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1396,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211135-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211135-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1427,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:186722996#searchVariation=MLB28557249&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:186722996#searchVariation=MLB28557249&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1458,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518240561-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518240561-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1489,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518213580-controle-jfa-longa-distncia-k1200-1200-metros-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518213580-controle-jfa-longa-distncia-k1200-1200-metros-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1520,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931359-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453931359-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1551,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211028-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211028-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1582,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453554397-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453554397-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1613,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920389-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920389-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1644,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881442-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881442-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1675,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518207380-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518207380-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1706,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211703-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211703-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1737,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518213396-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518213396-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1768,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518214655-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518214655-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1799,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837046-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837046-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1830,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518234550-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1518234550-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1861,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453723147-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D092e3c9f-eda8-4f70-aa88-bb313ebd3373</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453723147-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
         </is>
       </c>
     </row>

--- a/dados/tecnoaudio eletronica.xlsx
+++ b/dados/tecnoaudio eletronica.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>890.39</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:186722996#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:186722996#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>693.7</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:186722996#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:186722996#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -542,15 +546,19 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>796.35</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -563,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:186722996#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:186722996#searchVariation=MLB24154371&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -573,15 +581,19 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>548.24</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -594,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:186722996#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:186722996#searchVariation=MLB21455208&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -604,13 +616,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -625,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:186722996#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:186722996#searchVariation=MLB27687422&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -635,13 +647,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -656,7 +668,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:186722996#searchVariation=MLB34210379&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:186722996#searchVariation=MLB34210379&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -666,14 +678,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>443.07</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -681,7 +693,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -691,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:186722996#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:186722996#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -701,15 +713,19 @@
           <t>Fonte Jfa Carrregador 200a Storm Lite Automotiva Bivolt</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>757.59</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -722,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482105287-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482105287-fonte-jfa-carrregador-200a-storm-lite-automotiva-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -732,14 +748,14 @@
           <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>890.39</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -757,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441603393-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441603393-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -767,13 +783,13 @@
           <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>772.02</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -788,7 +804,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482145119-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482145119-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -798,13 +814,13 @@
           <t>Controle Remoto  K600 Jfa 600 Metros</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>58.13</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -819,7 +835,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931351-controle-remoto-k600-jfa-600-metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453931351-controle-remoto-k600-jfa-600-metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -829,15 +845,19 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>704.89</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -850,23 +870,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:186722996#searchVariation=MLB21392652&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:186722996#searchVariation=MLB21392652&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Jfa 1200 Longa Distancia Universal Radio K1200 Bran</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>61.19</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -881,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:186722996#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518210925-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -891,15 +911,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>595.85</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -912,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:186722996#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:186722996#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -922,15 +946,19 @@
           <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>749.65</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -943,7 +971,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443851463-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443851463-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -953,15 +981,19 @@
           <t>Fonte E Carregadora Jfa Storm Lite 120a Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>637.0700000000001</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -974,7 +1006,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130348406-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130348406-fonte-e-carregadora-jfa-storm-lite-120a-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -984,15 +1016,19 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>492.3</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1005,25 +1041,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:186722996#searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:186722996#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Radio K1200 Bran</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1036,23 +1076,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518210925-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482030967-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>58.13</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1067,7 +1107,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482030967-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:186722996#searchVariation=MLB28243528&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1077,15 +1117,19 @@
           <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>548.24</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1098,25 +1142,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043486072-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043486072-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1129,23 +1177,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:186722996#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443939769-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>63.89</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1160,7 +1208,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443939769-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:186722996#searchVariation=MLB27970249&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1170,15 +1218,19 @@
           <t>Fonte Jfa 200amp Carregadora Jfa Storm Lite Lite Bivolt</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>796.35</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1191,7 +1243,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482080223-fonte-jfa-200amp-carregadora-jfa-storm-lite-lite-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482080223-fonte-jfa-200amp-carregadora-jfa-storm-lite-lite-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1201,15 +1253,19 @@
           <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>693.7</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1222,7 +1278,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482043039-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482043039-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1232,15 +1288,19 @@
           <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>492.3</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1253,29 +1313,25 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043461986-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043461986-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1283,30 +1339,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043514146-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518236894-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1314,12 +1374,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518236894-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043514146-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1329,15 +1389,19 @@
           <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>469.92</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1350,7 +1414,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043488840-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043488840-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1360,15 +1424,19 @@
           <t>Fonte 120a Jfa Bob Storm Bivolt Medidor Cca E Sci Automotiva</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>749.65</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1381,7 +1449,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837044-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837044-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1459,13 @@
           <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1412,7 +1480,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211135-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211135-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1422,13 +1490,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>77.79000000000001</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1443,7 +1511,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:186722996#searchVariation=MLB28557249&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:186722996#searchVariation=MLB28557249&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1453,13 +1521,13 @@
           <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1474,7 +1542,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518240561-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518240561-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1484,13 +1552,13 @@
           <t>Controle Jfa Longa Distãncia K1200 1200 Metros</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1505,7 +1573,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518213580-controle-jfa-longa-distncia-k1200-1200-metros-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518213580-controle-jfa-longa-distncia-k1200-1200-metros-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1515,13 +1583,13 @@
           <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>58.13</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1536,7 +1604,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931359-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453931359-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1546,13 +1614,13 @@
           <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1567,7 +1635,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211028-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211028-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1577,13 +1645,13 @@
           <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>75.89</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1598,7 +1666,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453554397-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453554397-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1608,13 +1676,13 @@
           <t>Controle Remoto De Longa Distacia Jfa K600</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>62.89</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1629,7 +1697,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920389-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920389-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1639,13 +1707,13 @@
           <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>62.89</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1660,7 +1728,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063881442-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063881442-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1670,13 +1738,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Branco 1200 Metros </t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1691,7 +1759,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518207380-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518207380-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1701,13 +1769,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Amarelo</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>76.2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1722,7 +1790,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518211703-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518211703-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1800,13 @@
           <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1753,7 +1821,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518213396-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518213396-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1763,13 +1831,13 @@
           <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>66.98999999999999</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1784,7 +1852,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518214655-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518214655-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1794,15 +1862,19 @@
           <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>749.65</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1815,7 +1887,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976837046-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976837046-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1825,13 +1897,13 @@
           <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Verde</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>66.98999999999999</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1846,7 +1918,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1518234550-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1518234550-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
@@ -1856,13 +1928,13 @@
           <t>Controle Longa Distância 600 Metros Jfa K600 Preto-laranja</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>62.89</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1877,7 +1949,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453723147-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9af012ea-e9bd-45a7-abfd-f252b5f98461</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453723147-controle-longa-distncia-600-metros-jfa-k600-preto-laranja-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dffa93f66-d4da-4bde-a81d-cfdbb5c8b8e9</t>
         </is>
       </c>
     </row>
